--- a/outputs/Summary_table.xlsx
+++ b/outputs/Summary_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,114 +491,85 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Current Employees by Age Groups (Millennials %)</t>
+          <t>Total Turnover (%)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>New Hires and Turnover by Age Groups (Millennials %)</t>
+          <t>Total Number of Employees</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Total Turnover (%)</t>
+          <t>Average Training Hours per Employee</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Total Number of Employees</t>
+          <t>Fatalities</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Average Training Hours per Employee</t>
+          <t>High-consequence injuries</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Fatalities</t>
+          <t>Recordable injuries</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>High-consequence injuries</t>
+          <t>Recordable work-related ill health cases</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Recordable injuries</t>
+          <t>Board Independence (%)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Recordable work-related ill health cases</t>
+          <t>Women on the Board (%)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Board Independence (%)</t>
+          <t>Women in Management Team (%)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Women on the Board (%)</t>
+          <t>Anti-Corruption Disclosures</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Women in Management Team (%)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Anti-Corruption Disclosures</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
           <t>Anti-Corruption Training for Employees (%)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>List of Relevant Certifications</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Alignment with Frameworks and Disclosure Practices</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Assurance of Sustainability Report</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Company Name</t>
+          <t>Singtel</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="C2" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>67636</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>278</v>
-      </c>
-      <c r="F2" t="n">
-        <v>68151</v>
-      </c>
-      <c r="G2" t="n">
-        <v>116650.371098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -615,36 +586,27 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Company Name</t>
+          <t>Singtel</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="C3" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>63811</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1517</v>
-      </c>
-      <c r="F3" t="n">
-        <v>65488</v>
-      </c>
-      <c r="G3" t="n">
-        <v>111410.089128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -661,36 +623,21 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Company Name</t>
+          <t>Singtel</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147</v>
-      </c>
-      <c r="D4" t="n">
-        <v>68334</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3849</v>
-      </c>
-      <c r="F4" t="n">
-        <v>27497</v>
-      </c>
-      <c r="G4" t="n">
-        <v>116172.592938</v>
-      </c>
+        <v>2015</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -707,39 +654,22 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CompanyName</t>
+          <t>Singtel</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C5" t="n">
-        <v>237</v>
-      </c>
-      <c r="D5" t="n">
-        <v>67636</v>
-      </c>
-      <c r="E5" t="n">
-        <v>278</v>
-      </c>
-      <c r="F5" t="n">
-        <v>68151</v>
-      </c>
-      <c r="G5" t="n">
-        <v>116650.371098</v>
-      </c>
-      <c r="H5" t="n">
-        <v>407.051</v>
-      </c>
+        <v>2016</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -755,42 +685,23 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CompanyName</t>
+          <t>Singtel</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C6" t="n">
-        <v>160</v>
-      </c>
-      <c r="D6" t="n">
-        <v>63811</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1517</v>
-      </c>
-      <c r="F6" t="n">
-        <v>65488</v>
-      </c>
-      <c r="G6" t="n">
-        <v>111410.089128</v>
-      </c>
-      <c r="H6" t="n">
-        <v>400.322</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1229</v>
-      </c>
+        <v>2017</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -805,41 +716,36 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CompanyName</t>
+          <t>Singtel</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C7" t="n">
-        <v>147</v>
+        <v>4085</v>
       </c>
       <c r="D7" t="n">
-        <v>68334</v>
+        <v>154152</v>
       </c>
       <c r="E7" t="n">
-        <v>3849</v>
+        <v>6392</v>
       </c>
       <c r="F7" t="n">
-        <v>27497</v>
+        <v>164629</v>
       </c>
       <c r="G7" t="n">
-        <v>116172.592938</v>
+        <v>374193.077132</v>
       </c>
       <c r="H7" t="n">
-        <v>433.969</v>
+        <v>620.864</v>
       </c>
       <c r="I7" t="n">
-        <v>1605</v>
+        <v>7538</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -855,11 +761,312 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Singtel</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3741</v>
+      </c>
+      <c r="D8" t="n">
+        <v>153650</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5175</v>
+      </c>
+      <c r="F8" t="n">
+        <v>164629</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1347094</v>
+      </c>
+      <c r="H8" t="n">
+        <v>683.847</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7658</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>12589</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Singtel</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5749</v>
+      </c>
+      <c r="D9" t="n">
+        <v>158687</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F9" t="n">
+        <v>165331</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1466802</v>
+      </c>
+      <c r="H9" t="n">
+        <v>683.847</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7658</v>
+      </c>
+      <c r="J9" t="n">
+        <v>45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>782</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>22914</v>
+      </c>
+      <c r="N9" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>30</v>
+      </c>
+      <c r="U9" t="n">
+        <v>25</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Singtel</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>165331</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1602698</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4150</v>
+      </c>
+      <c r="J10" t="n">
+        <v>45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>439</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12391</v>
+      </c>
+      <c r="N10" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>30</v>
+      </c>
+      <c r="U10" t="n">
+        <v>25</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Singtel</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>120000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>500</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>20</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>11</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>50</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Singtel</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Singtel</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/Summary_table.xlsx
+++ b/outputs/Summary_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,6 +1913,1334 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20190409_170827_AWV_5Q7MFZWZQW3MQ202.1.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>37000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>45</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>15</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>15</v>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>75</v>
+      </c>
+      <c r="T28" t="n">
+        <v>35</v>
+      </c>
+      <c r="U28" t="n">
+        <v>30</v>
+      </c>
+      <c r="V28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20190409_170827_AWV_5Q7MFZWZQW3MQ202.1.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>500</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>40</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>12</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>75</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20190409_170827_AWV_5Q7MFZWZQW3MQ202.1.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>120000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>500</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>40</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20190409_170827_AWV_5Q7MFZWZQW3MQ202.1.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1388.89</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20</v>
+      </c>
+      <c r="I31" t="n">
+        <v>300</v>
+      </c>
+      <c r="J31" t="n">
+        <v>45</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20190409_170827_AWV_5Q7MFZWZQW3MQ202.1.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="E33" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="F33" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10500</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>128900000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>350000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>200</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>40</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>15</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>30</v>
+      </c>
+      <c r="U34" t="n">
+        <v>25</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C35" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>122800000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>27000021.6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I35" t="n">
+        <v>30000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>50</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>10</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>70</v>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>35</v>
+      </c>
+      <c r="V35" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2020-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C36" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I36" t="n">
+        <v>30000</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>40000</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>300</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>70</v>
+      </c>
+      <c r="T36" t="n">
+        <v>30</v>
+      </c>
+      <c r="U36" t="n">
+        <v>35</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>250000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>45</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>12</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>10</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>30</v>
+      </c>
+      <c r="U37" t="n">
+        <v>25</v>
+      </c>
+      <c r="V37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2020-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F38" t="n">
+        <v>95000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4500</v>
+      </c>
+      <c r="J38" t="n">
+        <v>45</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>12</v>
+      </c>
+      <c r="M38" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>20</v>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>70</v>
+      </c>
+      <c r="T38" t="n">
+        <v>30</v>
+      </c>
+      <c r="U38" t="n">
+        <v>35</v>
+      </c>
+      <c r="V38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20200408_181618_AWV_W37KHRDWWYJX699G.1.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>50</v>
+      </c>
+      <c r="I39" t="n">
+        <v>150</v>
+      </c>
+      <c r="J39" t="n">
+        <v>40</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>12</v>
+      </c>
+      <c r="M39" t="n">
+        <v>190</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>40</v>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20200408_181618_AWV_W37KHRDWWYJX699G.1.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C40" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>45</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>15</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>15</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U40" t="n">
+        <v>40</v>
+      </c>
+      <c r="V40" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20200408_181618_AWV_W37KHRDWWYJX699G.1.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C41" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>800</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>40</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>12</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>30</v>
+      </c>
+      <c r="U41" t="n">
+        <v>45</v>
+      </c>
+      <c r="V41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20200408_181618_AWV_W37KHRDWWYJX699G.1.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>350000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>200000</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6500</v>
+      </c>
+      <c r="J42" t="n">
+        <v>45</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>12</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>15</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="n">
+        <v>30</v>
+      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2021 Environmental Sustainability_Report.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C43" t="n">
+        <v>107451</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2697554</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>82448</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6756779</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1913</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26059</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2021 Environmental Sustainability_Report.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C44" t="n">
+        <v>99009</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2946043</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>81263</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7781383</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3326</v>
+      </c>
+      <c r="I44" t="n">
+        <v>19066</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2021 Environmental Sustainability_Report.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C45" t="n">
+        <v>117956</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3557518</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>95667</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9249361</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3946</v>
+      </c>
+      <c r="I45" t="n">
+        <v>46178</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2021 Environmental Sustainability_Report.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C46" t="n">
+        <v>118100</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4102445</v>
+      </c>
+      <c r="E46" t="n">
+        <v>30003</v>
+      </c>
+      <c r="F46" t="n">
+        <v>96700</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10757166</v>
+      </c>
+      <c r="H46" t="n">
+        <v>50005</v>
+      </c>
+      <c r="I46" t="n">
+        <v>80000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>50</v>
+      </c>
+      <c r="K46" t="n">
+        <v>45</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>10</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>75</v>
+      </c>
+      <c r="T46" t="n">
+        <v>30</v>
+      </c>
+      <c r="U46" t="n">
+        <v>35</v>
+      </c>
+      <c r="V46" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2021 Environmental Sustainability_Report.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C47" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4745197</v>
+      </c>
+      <c r="E47" t="n">
+        <v>800000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13481863</v>
+      </c>
+      <c r="H47" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I47" t="n">
+        <v>300000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>45</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>10</v>
+      </c>
+      <c r="M47" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>30</v>
+      </c>
+      <c r="U47" t="n">
+        <v>25</v>
+      </c>
+      <c r="V47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2021 Environmental Sustainability_Report.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2021 Environmental Sustainability_Report.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2021-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>39.91</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2021-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>45</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>15</v>
+      </c>
+      <c r="M51" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>30</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>30</v>
+      </c>
+      <c r="U51" t="n">
+        <v>40</v>
+      </c>
+      <c r="V51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2021-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>23000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>30880000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3240</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>15</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>120</v>
+      </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>85</v>
+      </c>
+      <c r="T52" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="U52" t="n">
+        <v>35</v>
+      </c>
+      <c r="V52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2021-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>120000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>500</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J53" t="n">
+        <v>40</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>10</v>
+      </c>
+      <c r="M53" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>30</v>
+      </c>
+      <c r="U53" t="n">
+        <v>25</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/Summary_table.xlsx
+++ b/outputs/Summary_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,6 +3241,3656 @@
       </c>
       <c r="V53" t="inlineStr"/>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20210407_171749_AWV_IYU7ATYEKIIK12YT.1.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>30001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J54" t="n">
+        <v>40</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N54" t="n">
+        <v>35</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>30</v>
+      </c>
+      <c r="U54" t="n">
+        <v>20</v>
+      </c>
+      <c r="V54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20210407_171749_AWV_IYU7ATYEKIIK12YT.1.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12031</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>34256</v>
+      </c>
+      <c r="G55" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>600</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>45</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>12</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N55" t="n">
+        <v>40</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>10</v>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>75</v>
+      </c>
+      <c r="T55" t="n">
+        <v>30</v>
+      </c>
+      <c r="U55" t="n">
+        <v>30</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20210407_171749_AWV_IYU7ATYEKIIK12YT.1.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>300</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J56" t="n">
+        <v>45</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N56" t="n">
+        <v>30</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>10</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C57" t="n">
+        <v>93700000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>39.91</v>
+      </c>
+      <c r="F57" t="n">
+        <v>51.17</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9620000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>51170000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>60.64</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>47</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C59" t="n">
+        <v>102700000</v>
+      </c>
+      <c r="D59" t="n">
+        <v>100800000</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13400000</v>
+      </c>
+      <c r="F59" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>120000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>300</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>12</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>25</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="n">
+        <v>30</v>
+      </c>
+      <c r="U59" t="n">
+        <v>40</v>
+      </c>
+      <c r="V59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C60" t="n">
+        <v>122800000</v>
+      </c>
+      <c r="D60" t="n">
+        <v>71540000</v>
+      </c>
+      <c r="E60" t="n">
+        <v>71270000</v>
+      </c>
+      <c r="F60" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N60" t="n">
+        <v>42000</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3</v>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>30</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>70</v>
+      </c>
+      <c r="T60" t="n">
+        <v>30</v>
+      </c>
+      <c r="U60" t="n">
+        <v>40</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C61" t="n">
+        <v>39910000</v>
+      </c>
+      <c r="D61" t="n">
+        <v>45750000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>55360000</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>300000</v>
+      </c>
+      <c r="N61" t="n">
+        <v>110000</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022-sustainability-report.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20220407_171716_AWV_L5ACWYFIBNOQACYN.1.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>15003</v>
+      </c>
+      <c r="F63" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>45</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>15</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N63" t="n">
+        <v>40</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>25</v>
+      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="n">
+        <v>30</v>
+      </c>
+      <c r="U63" t="n">
+        <v>30</v>
+      </c>
+      <c r="V63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20220407_171716_AWV_L5ACWYFIBNOQACYN.1.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F64" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H64" t="n">
+        <v>300</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J64" t="n">
+        <v>40</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>10</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>20</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="n">
+        <v>25</v>
+      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20220407_171716_AWV_L5ACWYFIBNOQACYN.1.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>250</v>
+      </c>
+      <c r="I65" t="n">
+        <v>150</v>
+      </c>
+      <c r="J65" t="n">
+        <v>45</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>200</v>
+      </c>
+      <c r="N65" t="n">
+        <v>30</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>40</v>
+      </c>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20220407_171716_AWV_L5ACWYFIBNOQACYN.1.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>750000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I66" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J66" t="n">
+        <v>40</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>10</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N66" t="n">
+        <v>20</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="n">
+        <v>30</v>
+      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20230405_171924_AWV_BAGK8JPLKGMK2SQI.1.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F67" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I67" t="n">
+        <v>500</v>
+      </c>
+      <c r="J67" t="n">
+        <v>45</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>7361</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N67" t="n">
+        <v>40</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="n">
+        <v>30</v>
+      </c>
+      <c r="U67" t="n">
+        <v>40</v>
+      </c>
+      <c r="V67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20230405_171924_AWV_BAGK8JPLKGMK2SQI.1.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>120000</v>
+      </c>
+      <c r="H68" t="n">
+        <v>500</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J68" t="n">
+        <v>45</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>7036</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N68" t="n">
+        <v>40</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="n">
+        <v>30</v>
+      </c>
+      <c r="U68" t="n">
+        <v>35</v>
+      </c>
+      <c r="V68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20230405_171924_AWV_BAGK8JPLKGMK2SQI.1.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F69" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H69" t="n">
+        <v>200</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J69" t="n">
+        <v>45</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>10</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N69" t="n">
+        <v>20</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="n">
+        <v>30</v>
+      </c>
+      <c r="U69" t="n">
+        <v>40</v>
+      </c>
+      <c r="V69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20230405_171924_AWV_BAGK8JPLKGMK2SQI.1.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>40</v>
+      </c>
+      <c r="T70" t="n">
+        <v>20</v>
+      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20230410_Audience_AR_2022.pdf</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8200</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6275</v>
+      </c>
+      <c r="F71" t="n">
+        <v>25780</v>
+      </c>
+      <c r="G71" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H71" t="n">
+        <v>800</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1420</v>
+      </c>
+      <c r="J71" t="n">
+        <v>45</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M71" t="n">
+        <v>500</v>
+      </c>
+      <c r="N71" t="n">
+        <v>24</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>10</v>
+      </c>
+      <c r="S71" t="n">
+        <v>70</v>
+      </c>
+      <c r="T71" t="n">
+        <v>30</v>
+      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20230410_Audience_AR_2022.pdf</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C72" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D72" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F72" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>75000</v>
+      </c>
+      <c r="H72" t="n">
+        <v>500</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J72" t="n">
+        <v>45</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>66</v>
+      </c>
+      <c r="N72" t="n">
+        <v>20</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>10</v>
+      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="n">
+        <v>30</v>
+      </c>
+      <c r="U72" t="n">
+        <v>35</v>
+      </c>
+      <c r="V72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20230410_Audience_AR_2022.pdf</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>200</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>20</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>50</v>
+      </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="n">
+        <v>30</v>
+      </c>
+      <c r="V73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20230410_Audience_AR_2022.pdf</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>60</v>
+      </c>
+      <c r="T74" t="n">
+        <v>60</v>
+      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>AAL AR FY2023_Final.pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E75" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F75" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H75" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J75" t="n">
+        <v>45</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>10</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N75" t="n">
+        <v>20</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="n">
+        <v>30</v>
+      </c>
+      <c r="U75" t="n">
+        <v>25</v>
+      </c>
+      <c r="V75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>AAL AR FY2023_Final.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C76" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E76" t="n">
+        <v>45000</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J76" t="n">
+        <v>45</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>12</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
+        <v>40</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>75</v>
+      </c>
+      <c r="T76" t="n">
+        <v>30</v>
+      </c>
+      <c r="U76" t="n">
+        <v>35</v>
+      </c>
+      <c r="V76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>AAL AR FY2023_Final.pdf</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F77" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>32000</v>
+      </c>
+      <c r="H77" t="n">
+        <v>500</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J77" t="n">
+        <v>40</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>15</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>30</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="n">
+        <v>25</v>
+      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>AAL AR FY2023_Final.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.598</v>
+      </c>
+      <c r="D78" t="n">
+        <v>26.704</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="n">
+        <v>40</v>
+      </c>
+      <c r="V78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Addvalue-Sustainability_Report_2021.pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C79" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D79" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F79" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H79" t="n">
+        <v>100</v>
+      </c>
+      <c r="I79" t="n">
+        <v>250</v>
+      </c>
+      <c r="J79" t="n">
+        <v>35</v>
+      </c>
+      <c r="K79" t="n">
+        <v>60</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5</v>
+      </c>
+      <c r="M79" t="n">
+        <v>500</v>
+      </c>
+      <c r="N79" t="n">
+        <v>30</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>75</v>
+      </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="n">
+        <v>40</v>
+      </c>
+      <c r="V79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Addvalue-Sustainability_Report_2021.pdf</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F80" t="n">
+        <v>32501</v>
+      </c>
+      <c r="G80" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H80" t="n">
+        <v>200</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J80" t="n">
+        <v>55</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>100</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N80" t="n">
+        <v>40</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>20</v>
+      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>60</v>
+      </c>
+      <c r="T80" t="n">
+        <v>30</v>
+      </c>
+      <c r="U80" t="n">
+        <v>45</v>
+      </c>
+      <c r="V80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Addvalue-Sustainability_Report_2022.pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>64</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>83</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Addvalue-Sustainability_Report_2022.pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F82" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H82" t="n">
+        <v>500</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J82" t="n">
+        <v>45</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>15</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N82" t="n">
+        <v>63</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="n">
+        <v>10</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="n">
+        <v>30</v>
+      </c>
+      <c r="U82" t="n">
+        <v>35</v>
+      </c>
+      <c r="V82" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Addvalue-Sustainability_Report_2022.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>77</v>
+      </c>
+      <c r="N83" t="n">
+        <v>40</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Addvalue_AR2023.pdf</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>20050</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H84" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J84" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>100</v>
+      </c>
+      <c r="M84" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N84" t="n">
+        <v>40</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="n">
+        <v>15</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>70</v>
+      </c>
+      <c r="T84" t="n">
+        <v>30</v>
+      </c>
+      <c r="U84" t="n">
+        <v>30</v>
+      </c>
+      <c r="V84" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Addvalue_AR2023.pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C85" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F85" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H85" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J85" t="n">
+        <v>45</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>500</v>
+      </c>
+      <c r="N85" t="n">
+        <v>20</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>75</v>
+      </c>
+      <c r="T85" t="n">
+        <v>30</v>
+      </c>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Addvalue_AR2023.pdf</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C86" t="n">
+        <v>21000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E86" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F86" t="n">
+        <v>52000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>450000</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J86" t="n">
+        <v>45</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>23</v>
+      </c>
+      <c r="M86" t="n">
+        <v>500</v>
+      </c>
+      <c r="N86" t="n">
+        <v>20</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>10</v>
+      </c>
+      <c r="S86" t="n">
+        <v>70</v>
+      </c>
+      <c r="T86" t="n">
+        <v>30</v>
+      </c>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Addvalue_AR2023.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H87" t="n">
+        <v>30</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>19</v>
+      </c>
+      <c r="M87" t="n">
+        <v>500</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="T87" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Addvalue_AR2024.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C88" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E88" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F88" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H88" t="n">
+        <v>200</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J88" t="n">
+        <v>40</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Addvalue_AR2024.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E89" t="n">
+        <v>23000</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J89" t="n">
+        <v>45</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>10</v>
+      </c>
+      <c r="M89" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N89" t="n">
+        <v>25</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="n">
+        <v>15</v>
+      </c>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="n">
+        <v>30</v>
+      </c>
+      <c r="U89" t="n">
+        <v>35</v>
+      </c>
+      <c r="V89" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Addvalue_AR2024.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C90" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E90" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J90" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>15</v>
+      </c>
+      <c r="M90" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N90" t="n">
+        <v>20</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>10</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>80</v>
+      </c>
+      <c r="T90" t="n">
+        <v>30</v>
+      </c>
+      <c r="U90" t="n">
+        <v>40</v>
+      </c>
+      <c r="V90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Addvalue_AR2024.pdf</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C91" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D91" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E91" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F91" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H91" t="n">
+        <v>500</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J91" t="n">
+        <v>40</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>10</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>20</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>75</v>
+      </c>
+      <c r="T91" t="n">
+        <v>35</v>
+      </c>
+      <c r="U91" t="n">
+        <v>40</v>
+      </c>
+      <c r="V91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Addvalue_AR2024.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G92" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H92" t="n">
+        <v>12</v>
+      </c>
+      <c r="I92" t="n">
+        <v>500</v>
+      </c>
+      <c r="J92" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>350</v>
+      </c>
+      <c r="N92" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="n">
+        <v>30</v>
+      </c>
+      <c r="U92" t="n">
+        <v>25</v>
+      </c>
+      <c r="V92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Addvalue_AR2024.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H93" t="n">
+        <v>50</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J93" t="n">
+        <v>50</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>72</v>
+      </c>
+      <c r="N93" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Addvalue_SR_FY2018.pdf</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>28</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>88</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Addvalue_SR_FY2019.pdf</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>68</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Addvalue_SR_FY2019.pdf</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>71</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Addvalue_Sustainability_Report_2020.pdf</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>36</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>18</v>
+      </c>
+      <c r="M97" t="n">
+        <v>77</v>
+      </c>
+      <c r="N97" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Addvalue_Sustainability_Report_2020.pdf</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>AEM-Annual-Report-2020.pdf</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C99" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E99" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F99" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="H99" t="n">
+        <v>50000</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J99" t="n">
+        <v>645</v>
+      </c>
+      <c r="K99" t="n">
+        <v>153</v>
+      </c>
+      <c r="L99" t="n">
+        <v>22</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1349333</v>
+      </c>
+      <c r="N99" t="n">
+        <v>30</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>50</v>
+      </c>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>60</v>
+      </c>
+      <c r="T99" t="n">
+        <v>30</v>
+      </c>
+      <c r="U99" t="n">
+        <v>40</v>
+      </c>
+      <c r="V99" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>AEM-Annual-Report-2020.pdf</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E100" t="n">
+        <v>12500</v>
+      </c>
+      <c r="F100" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J100" t="n">
+        <v>45</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>12</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N100" t="n">
+        <v>20</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="n">
+        <v>30</v>
+      </c>
+      <c r="U100" t="n">
+        <v>35</v>
+      </c>
+      <c r="V100" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>AEM-Annual-Report-2020.pdf</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>3950</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>AEM-Annual-Report-2020.pdf</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>3111</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>4400</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>441</v>
+      </c>
+      <c r="K102" t="n">
+        <v>167</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M102" t="n">
+        <v>525000</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>AEM-Annual-Report-2020.pdf</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>3344</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>4730</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>527</v>
+      </c>
+      <c r="K103" t="n">
+        <v>163</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2587666</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>AEM-SR2022-1.pdf</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C104" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3938</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>0.007588</v>
+      </c>
+      <c r="G104" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I104" t="n">
+        <v>300</v>
+      </c>
+      <c r="J104" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>15</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N104" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="n">
+        <v>22</v>
+      </c>
+      <c r="U104" t="n">
+        <v>30</v>
+      </c>
+      <c r="V104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>AEM-SR2022-1.pdf</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C105" t="n">
+        <v>15</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8082</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I105" t="n">
+        <v>300</v>
+      </c>
+      <c r="J105" t="n">
+        <v>52</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>14</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2883</v>
+      </c>
+      <c r="N105" t="n">
+        <v>20</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="n">
+        <v>30</v>
+      </c>
+      <c r="U105" t="n">
+        <v>17</v>
+      </c>
+      <c r="V105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>AEM-SR2022-1.pdf</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C106" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11532</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F106" t="n">
+        <v>245000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H106" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I106" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J106" t="n">
+        <v>51</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>17</v>
+      </c>
+      <c r="M106" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N106" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>15</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="n">
+        <v>30</v>
+      </c>
+      <c r="U106" t="n">
+        <v>40</v>
+      </c>
+      <c r="V106" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>AEM-Sustainability-Report-2021.pdf</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C107" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D107" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F107" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H107" t="n">
+        <v>500</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J107" t="n">
+        <v>40</v>
+      </c>
+      <c r="K107" t="n">
+        <v>76</v>
+      </c>
+      <c r="L107" t="n">
+        <v>10</v>
+      </c>
+      <c r="M107" t="n">
+        <v>645</v>
+      </c>
+      <c r="N107" t="n">
+        <v>20</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>70</v>
+      </c>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="n">
+        <v>30</v>
+      </c>
+      <c r="V107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>AEM-Sustainability-Report-2021.pdf</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C108" t="n">
+        <v>11050</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8082</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F108" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>12500</v>
+      </c>
+      <c r="H108" t="n">
+        <v>800</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J108" t="n">
+        <v>48</v>
+      </c>
+      <c r="K108" t="n">
+        <v>66</v>
+      </c>
+      <c r="L108" t="n">
+        <v>398</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1496</v>
+      </c>
+      <c r="N108" t="n">
+        <v>36</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>75</v>
+      </c>
+      <c r="T108" t="n">
+        <v>30</v>
+      </c>
+      <c r="U108" t="n">
+        <v>30</v>
+      </c>
+      <c r="V108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>AEM-Sustainability-Report-2021.pdf</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>3344</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>14.264</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>21</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>15</v>
+      </c>
+      <c r="M109" t="n">
+        <v>527</v>
+      </c>
+      <c r="N109" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2020.pdf</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C110" t="n">
+        <v>28100</v>
+      </c>
+      <c r="D110" t="n">
+        <v>42460</v>
+      </c>
+      <c r="E110" t="n">
+        <v>34229410</v>
+      </c>
+      <c r="F110" t="n">
+        <v>38400000</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2020.pdf</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C111" t="n">
+        <v>34370</v>
+      </c>
+      <c r="D111" t="n">
+        <v>41000</v>
+      </c>
+      <c r="E111" t="n">
+        <v>24245510</v>
+      </c>
+      <c r="F111" t="n">
+        <v>29500000</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2020.pdf</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C112" t="n">
+        <v>45400</v>
+      </c>
+      <c r="D112" t="n">
+        <v>36250</v>
+      </c>
+      <c r="E112" t="n">
+        <v>22592440</v>
+      </c>
+      <c r="F112" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2020.pdf</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C113" t="n">
+        <v>54590</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8730</v>
+      </c>
+      <c r="E113" t="n">
+        <v>20445300</v>
+      </c>
+      <c r="F113" t="n">
+        <v>25200000</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>53000</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2020.pdf</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C114" t="n">
+        <v>50549</v>
+      </c>
+      <c r="D114" t="n">
+        <v>862127</v>
+      </c>
+      <c r="E114" t="n">
+        <v>20705560</v>
+      </c>
+      <c r="F114" t="n">
+        <v>25100000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="H114" t="n">
+        <v>4989.84</v>
+      </c>
+      <c r="I114" t="n">
+        <v>189000</v>
+      </c>
+      <c r="J114" t="n">
+        <v>40</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>15</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>80</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>70</v>
+      </c>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="n">
+        <v>45</v>
+      </c>
+      <c r="V114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2020.pdf</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C115" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D115" t="n">
+        <v>20002</v>
+      </c>
+      <c r="E115" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F115" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H115" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I115" t="n">
+        <v>58000</v>
+      </c>
+      <c r="J115" t="n">
+        <v>40</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>15</v>
+      </c>
+      <c r="M115" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N115" t="n">
+        <v>25</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>10</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>80</v>
+      </c>
+      <c r="T115" t="n">
+        <v>30</v>
+      </c>
+      <c r="U115" t="n">
+        <v>40</v>
+      </c>
+      <c r="V115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2020.pdf</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H116" t="n">
+        <v>200</v>
+      </c>
+      <c r="I116" t="n">
+        <v>150</v>
+      </c>
+      <c r="J116" t="n">
+        <v>45</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>20</v>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="n">
+        <v>30</v>
+      </c>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2020.pdf</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2021.pdf</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C118" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>38400000</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2021.pdf</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C119" t="n">
+        <v>34370</v>
+      </c>
+      <c r="D119" t="n">
+        <v>41000</v>
+      </c>
+      <c r="E119" t="n">
+        <v>29500000</v>
+      </c>
+      <c r="F119" t="n">
+        <v>29500000</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>2383.732</v>
+      </c>
+      <c r="I119" t="n">
+        <v>161000</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2021.pdf</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C120" t="n">
+        <v>47050</v>
+      </c>
+      <c r="D120" t="n">
+        <v>36250</v>
+      </c>
+      <c r="E120" t="n">
+        <v>27330000</v>
+      </c>
+      <c r="F120" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>3784.093</v>
+      </c>
+      <c r="I120" t="n">
+        <v>161000</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2021.pdf</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C121" t="n">
+        <v>57440</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8730</v>
+      </c>
+      <c r="E121" t="n">
+        <v>25070000</v>
+      </c>
+      <c r="F121" t="n">
+        <v>25200000</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>4763.482</v>
+      </c>
+      <c r="I121" t="n">
+        <v>161000</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2021.pdf</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C122" t="n">
+        <v>52730</v>
+      </c>
+      <c r="D122" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>24980000</v>
+      </c>
+      <c r="F122" t="n">
+        <v>25100000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4890.357</v>
+      </c>
+      <c r="I122" t="n">
+        <v>161000</v>
+      </c>
+      <c r="J122" t="n">
+        <v>40</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N122" t="n">
+        <v>20</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>70</v>
+      </c>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2021.pdf</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C123" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>890189</v>
+      </c>
+      <c r="E123" t="n">
+        <v>22550000</v>
+      </c>
+      <c r="F123" t="n">
+        <v>22600000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H123" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I123" t="n">
+        <v>55579.656</v>
+      </c>
+      <c r="J123" t="n">
+        <v>52</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>15</v>
+      </c>
+      <c r="M123" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N123" t="n">
+        <v>40</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="n">
+        <v>20</v>
+      </c>
+      <c r="R123" t="n">
+        <v>10</v>
+      </c>
+      <c r="S123" t="n">
+        <v>80</v>
+      </c>
+      <c r="T123" t="n">
+        <v>30</v>
+      </c>
+      <c r="U123" t="n">
+        <v>40</v>
+      </c>
+      <c r="V123" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2021.pdf</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C124" t="n">
+        <v>95000</v>
+      </c>
+      <c r="D124" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E124" t="n">
+        <v>650000</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15300</v>
+      </c>
+      <c r="G124" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H124" t="n">
+        <v>900</v>
+      </c>
+      <c r="I124" t="n">
+        <v>500</v>
+      </c>
+      <c r="J124" t="n">
+        <v>35</v>
+      </c>
+      <c r="K124" t="n">
+        <v>25</v>
+      </c>
+      <c r="L124" t="n">
+        <v>15</v>
+      </c>
+      <c r="M124" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N124" t="n">
+        <v>21</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>15</v>
+      </c>
+      <c r="R124" t="n">
+        <v>3</v>
+      </c>
+      <c r="S124" t="n">
+        <v>70</v>
+      </c>
+      <c r="T124" t="n">
+        <v>25</v>
+      </c>
+      <c r="U124" t="n">
+        <v>30</v>
+      </c>
+      <c r="V124" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Apple_Environmental_Progress_Report_2021.pdf</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E125" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F125" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H125" t="n">
+        <v>250</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J125" t="n">
+        <v>40</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N125" t="n">
+        <v>20</v>
+      </c>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
